--- a/biology/Botanique/Cipura_paludosa/Cipura_paludosa.xlsx
+++ b/biology/Botanique/Cipura_paludosa/Cipura_paludosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cipura paludosa est une espèce de plante herbacée néotropicale appartenant à la famille des Iridaceae originaire d'Amérique centrale et du Sud. Elle est connue ne Guyane sous les noms d'Envers (créole), ou mahik (Palikur)[2], et au Brésil comme alho-do-mato, alho-da-campina, alho-do-campo, cebolinha-do-campo, coqueirinho, coquinho et vareta.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cipura paludosa est une espèce de plante herbacée néotropicale appartenant à la famille des Iridaceae originaire d'Amérique centrale et du Sud. Elle est connue ne Guyane sous les noms d'Envers (créole), ou mahik (Palikur), et au Brésil comme alho-do-mato, alho-da-campina, alho-do-campo, cebolinha-do-campo, coqueirinho, coquinho et vareta.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cipura paludosa a le statut d'espèce déterminante ZNIEFF en Guyane[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cipura paludosa a le statut d'espèce déterminante ZNIEFF en Guyane.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cipura paludosa entre dans la préparation d'un sirop Palikur contre le mal de cœur. Le bulbe contient des quinones du type anthraquinone[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cipura paludosa entre dans la préparation d'un sirop Palikur contre le mal de cœur. Le bulbe contient des quinones du type anthraquinone.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[4] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « CIPURA (paludoſa). (Tabula 13.)
 Radix tuberoſa, orbiculata, tunicata, fibris capillaceis ad baſim munita. Folia ſæpiſſimè quatuor, baſi tuberculum involventia, pedalia &amp; amplius, anguſta, ſtriata, in acumen deſinentia. Scapus nudus, ſemi-pedalis, &amp; ampliùs, cylindraceus, rigidus, ad ſummitatem duabus foliolis longis, anguſtis, acutis, &amp; aliis minoribus terminatus : intrà bæc folia flores plures pedunculati. Corolla alba, vel cærulea. 
 Florebat Auguſto. 
